--- a/data/grant_prep.xlsx
+++ b/data/grant_prep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B664F6D-BC6A-4127-AD6D-DDF929FFF7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325C0C7-9717-4BF4-AC04-1FABC33819AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>what</t>
   </si>
@@ -48,128 +48,197 @@
     <t>why</t>
   </si>
   <si>
-    <t>Utah State University</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
-    <t>R01 Grant: Response Inhibition in Reactive Balance Control</t>
-  </si>
-  <si>
-    <t>NIH Appl. ID: 10030557</t>
-  </si>
-  <si>
     <t>Amount \$2,445,008 (4 years)</t>
   </si>
   <si>
-    <t>Currently resubmitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI: Dr Dave Bolton </t>
-  </si>
-  <si>
-    <t>PI: Dr Maryellen McClain Verdose</t>
-  </si>
-  <si>
-    <t>R21 Grant: The Eﬀect of Background Noise on Reading Performance in Children with ASD</t>
-  </si>
-  <si>
-    <t>Febuary 2020</t>
-  </si>
-  <si>
-    <t>co-PI: Drs Sarah Yoho Leopold, Sarah E Schwartz</t>
-  </si>
-  <si>
-    <t>co-PIs: Drs JoAnn Tschanz, Chris Warren, Sarah E Schwartz</t>
-  </si>
-  <si>
-    <t>Amount \$385,648 (2 years)</t>
-  </si>
-  <si>
-    <t>October 2019, November 2020</t>
-  </si>
-  <si>
-    <t>National Institute of Health:  National Institute of Child Health and Human Development (PA-18-482)</t>
-  </si>
-  <si>
-    <t>National Institute of Health: National Institute of Aging (PA-20-185)</t>
-  </si>
-  <si>
-    <t>Application Number: 1 R21 HD103992-01</t>
-  </si>
-  <si>
-    <t>PIs: Drs. Edwardo Ortiz, Lisa Boyce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R21 Grant: Buenas Bases: An Early Childhood Development Intervention for Children of Ecuadorian Adolescent Mothers </t>
-  </si>
-  <si>
-    <t>Amount: \$3,168,557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact Score:50     Percentile:45 </t>
-  </si>
-  <si>
-    <t>Application Number: 1 R01 HD106272-01</t>
-  </si>
-  <si>
-    <t>November 2020</t>
-  </si>
-  <si>
-    <t>coPIs: Drs. Ryan Seedall, Eric Reither, Sarah E Schwartz, Spencer Bradshaw, Marcela Santos, Sonia Rodrigues-Jaramillo, Patricial Ordonez, Jill Luto</t>
-  </si>
-  <si>
-    <t>The Clubhouse Model as an Intervention to Address Social Isolation and Loneliness Among People with Severe Mental Illness</t>
-  </si>
-  <si>
-    <t>National Institute of Health:  Global Brain and Nervous System Disorders Research Across the Lifespan (PAR-18-835)</t>
-  </si>
-  <si>
-    <t>ACL National Institute on Disability, Independent Living, and Rehabilitation Research: Disability and Rehabilitation Research Projects and Centers Program (DPCP21000189)</t>
-  </si>
-  <si>
-    <t>May 2021</t>
-  </si>
-  <si>
-    <t>PI: Dr. Brian Phillips</t>
-  </si>
-  <si>
-    <t>co-PIs: DRs Sarah E Schwartz, Allison Fleming, Colleen McKay</t>
-  </si>
-  <si>
-    <t>Amount: \$2,715,870 (5 years)</t>
-  </si>
-  <si>
-    <t>Score: 82/100 (73-86)</t>
-  </si>
-  <si>
-    <t>Currently revising</t>
-  </si>
-  <si>
-    <t>Oct 2021</t>
-  </si>
-  <si>
-    <t>National Science Foundation: Graduate Research Fellowships Program (GRFP)</t>
-  </si>
-  <si>
-    <t>PI: Hector Gonzalez</t>
-  </si>
-  <si>
-    <t>Fellowship:Risk Factors that Predict Cognitive Resilience in Older Adults at High Risk for Alzheimer’s Disease</t>
-  </si>
-  <si>
-    <t>Submitted</t>
+    <t xml:space="preserve">PI: Dave Bolton </t>
+  </si>
+  <si>
+    <t>NIH: R01</t>
+  </si>
+  <si>
+    <t>Response Inhibition in Reactive Balance Control</t>
+  </si>
+  <si>
+    <t>NIH R21</t>
+  </si>
+  <si>
+    <t>NIH: R21</t>
+  </si>
+  <si>
+    <t>Age-Related Decline in Markers of Norepinephrine Activity and Increased Risk of Falls in Older Adults</t>
+  </si>
+  <si>
+    <t>PI: Chris Warren</t>
+  </si>
+  <si>
+    <t>co-PI's: Dave Bolton, JoAnn Tschanz</t>
+  </si>
+  <si>
+    <t>Roll: statistician</t>
+  </si>
+  <si>
+    <t>Amount: \$2,200,000</t>
+  </si>
+  <si>
+    <t>Roll: co-investigator</t>
+  </si>
+  <si>
+    <t>co-PIs: JoAnn Tschanz, Chris Warren</t>
+  </si>
+  <si>
+    <t>Toward a better understanding of medically unexplained chronic fatigue in older adults: A multiple observations and measurements pilot study</t>
+  </si>
+  <si>
+    <t>Parental Microprotections in Black Families:  Examining Links Among Racial Discrimination, Parenting, and Adolescent Psychosocial Adjustment</t>
+  </si>
+  <si>
+    <t>Pavlovian Approaches to Promoting Self-control</t>
+  </si>
+  <si>
+    <t>PI: Greg Madden</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>PI: Aryn Dotterer</t>
+  </si>
+  <si>
+    <t>co-I: Olivenne Skinner</t>
+  </si>
+  <si>
+    <t>Amount: \$412,783</t>
+  </si>
+  <si>
+    <t>Amount \$393,284</t>
+  </si>
+  <si>
+    <t>Resubmission (original was prior to my involvment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resubmission, multiple iterations and submissions </t>
+  </si>
+  <si>
+    <t>Feb 2024</t>
+  </si>
+  <si>
+    <t>PI: Brennan Thompson</t>
+  </si>
+  <si>
+    <t>Amount \$146,000</t>
+  </si>
+  <si>
+    <t>Amount \$3,342,460</t>
+  </si>
+  <si>
+    <t>co-PIs: JoAnn Tschanz, Brennan Thompson</t>
+  </si>
+  <si>
+    <t>June 2024</t>
+  </si>
+  <si>
+    <t>Currently preparing resubmission</t>
+  </si>
+  <si>
+    <t>July 2024</t>
+  </si>
+  <si>
+    <t>Amount: \$390,754</t>
+  </si>
+  <si>
+    <t>co-Is: Dave Bolton, Kim Clevenger</t>
+  </si>
+  <si>
+    <t>co-Is: Dave Bolton, Talin Louder</t>
+  </si>
+  <si>
+    <t>New submission</t>
+  </si>
+  <si>
+    <t>PI: Talin Louder</t>
+  </si>
+  <si>
+    <t>co-Is: Chris Dakin, Shannon Pynn</t>
+  </si>
+  <si>
+    <t>co-I: JoAnn Tschanz</t>
+  </si>
+  <si>
+    <t>PI: Kollol Bhattacharyya</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>not funded</t>
+  </si>
+  <si>
+    <t>Feb 2025</t>
+  </si>
+  <si>
+    <t>Original submissions: June 2023, March 2024</t>
+  </si>
+  <si>
+    <t>Original submissions: March 2023, Feb 2024</t>
+  </si>
+  <si>
+    <t>Original submissions: June 2023, Jun 2024</t>
+  </si>
+  <si>
+    <t>NIH R03</t>
+  </si>
+  <si>
+    <t>October 2024</t>
+  </si>
+  <si>
+    <t>PI: Katie Brown</t>
+  </si>
+  <si>
+    <t>Developing a Tool to Measure Behavior Intervention Complexity</t>
+  </si>
+  <si>
+    <t>PI: Kim Clevenger</t>
+  </si>
+  <si>
+    <t>Aquatic Exercise for Improving Gait and Cognition in Older Adults</t>
+  </si>
+  <si>
+    <t>Feasibility of Kundalini yoga in managing the cognitive decline in long-term care residents with mild cognitive impairment</t>
+  </si>
+  <si>
+    <t>Efficacy of the ‘Level-Up’ Classroom Design Intervention for Physical Activity Promotion in Preschool-Aged Children</t>
+  </si>
+  <si>
+    <t>Examining minimal dose eccentric resistance training for older adults: A paradigm to enhance resistance training benefits through improved participation</t>
+  </si>
+  <si>
+    <t>Does rapid stopping ability predict falls in community-dwelling older adults?</t>
+  </si>
+  <si>
+    <t>Amount: \$274,999 (2 years)</t>
+  </si>
+  <si>
+    <t>Co-Is: Keith Christensen, Sarah Schwartz, Karin Pfeiffer, Tyler Prochnmow</t>
+  </si>
+  <si>
+    <t>Amount: \$2,317,584 (5 years)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +380,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +571,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -658,14 +740,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -725,9 +820,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -765,7 +860,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -871,7 +966,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1013,7 +1108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1021,235 +1116,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.86328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.9296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.73046875" customWidth="1"/>
-    <col min="5" max="5" width="27.06640625" customWidth="1"/>
-    <col min="6" max="6" width="39.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.53125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="69.19921875" customWidth="1"/>
+    <col min="6" max="6" width="27.06640625" customWidth="1"/>
+    <col min="7" max="7" width="39.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C24" s="6"/>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F3" t="s">
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F25" t="s">
-        <v>42</v>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G58" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/grant_prep.xlsx
+++ b/data/grant_prep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325C0C7-9717-4BF4-AC04-1FABC33819AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C89E76-7F2D-416C-85E2-8C4CD3145A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>what</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>Amount: \$2,317,584 (5 years)</t>
+  </si>
+  <si>
+    <t>NIH: U01/R01</t>
+  </si>
+  <si>
+    <t>Febuary 2025</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease in Native Hawaiians and Pacific Islanders: Sample Acquisition and Whole Genome Sequencing</t>
+  </si>
+  <si>
+    <t>Sub-award to BYU, lead: Perry Ridge</t>
+  </si>
+  <si>
+    <t>PI: JoAnn Tschanz</t>
+  </si>
+  <si>
+    <t>Amount: \$2,641,126 (4 years)</t>
   </si>
 </sst>
 </file>
@@ -740,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -759,6 +777,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1568,6 +1589,41 @@
         <v>64</v>
       </c>
     </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E61" s="2"/>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E62" s="2"/>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
